--- a/static/templates/Finance_Procurement_Plan.xlsx
+++ b/static/templates/Finance_Procurement_Plan.xlsx
@@ -7,8 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Instructions &amp; User Guide" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Procurement Plan" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Procurement Overview" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Procurement Register" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vendor Management" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -28,17 +29,7 @@
     </font>
     <font>
       <b val="1"/>
-      <color rgb="001F4E78"/>
       <sz val="16"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <color rgb="001F4E78"/>
-      <sz val="14"/>
-    </font>
-    <font>
-      <i val="1"/>
-      <sz val="10"/>
     </font>
     <font>
       <b val="1"/>
@@ -47,7 +38,13 @@
     <font>
       <b val="1"/>
       <color rgb="00FFFFFF"/>
-      <sz val="11"/>
+    </font>
+    <font>
+      <b val="1"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="14"/>
     </font>
   </fonts>
   <fills count="7">
@@ -59,36 +56,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E7F3FF"/>
-        <bgColor rgb="00E7F3FF"/>
+        <fgColor rgb="002F5597"/>
+        <bgColor rgb="002F5597"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="004472C4"/>
-        <bgColor rgb="004472C4"/>
+        <fgColor rgb="0090EE90"/>
+        <bgColor rgb="0090EE90"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="006BCF7F"/>
-        <bgColor rgb="006BCF7F"/>
+        <fgColor rgb="00FFFF99"/>
+        <bgColor rgb="00FFFF99"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFD93D"/>
-        <bgColor rgb="00FFD93D"/>
+        <fgColor rgb="00E6F3FF"/>
+        <bgColor rgb="00E6F3FF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF6B6B"/>
-        <bgColor rgb="00FF6B6B"/>
+        <fgColor rgb="00FFB3B3"/>
+        <bgColor rgb="00FFB3B3"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -102,26 +99,52 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -490,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,154 +521,331 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="80" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="1" max="1"/>
     <col width="15" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
     <col width="15" customWidth="1" min="4" max="4"/>
     <col width="15" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>FINANCE - CORE BANKING SYSTEM MODERNIZATION</t>
+          <t>PROCUREMENT MANAGEMENT PLAN</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Procurement Plan</t>
+          <t>FINANCE Procurement Plan Project</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>PMI 2025 Standards Compliant</t>
-        </is>
-      </c>
-    </row>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Generated: July 16, 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="4"/>
     <row r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>DOCUMENT OVERVIEW</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" s="5" t="inlineStr">
-        <is>
-          <t>This template manages all procurement activities for the Core Banking System Modernization project, ensuring timely acquisition of goods and services.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7"/>
-    <row r="8"/>
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>PROJECT INFORMATION</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>Project Name:</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Enterprise AI/ML Implementation</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>Procurement Manager:</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>Robert Chen, CPSM</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="inlineStr">
+        <is>
+          <t>Total Procurement Budget:</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>$1,425,000 (50% of project budget)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="inlineStr">
+        <is>
+          <t>Number of Procurements:</t>
+        </is>
+      </c>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>12 major procurement packages</t>
+        </is>
+      </c>
+    </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>KEY FEATURES</t>
+          <t>Procurement Timeline:</t>
+        </is>
+      </c>
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>18 months (Jan 2025 - Jun 2026)</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>• Procurement item tracking</t>
+      <c r="A11" s="4" t="inlineStr">
+        <is>
+          <t>Contract Types:</t>
+        </is>
+      </c>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Fixed Price, Time &amp; Materials, Cost Plus</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>• Vendor management</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>• Budget and timeline monitoring</t>
+      <c r="A12" s="4" t="inlineStr">
+        <is>
+          <t>Key Vendors:</t>
+        </is>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>5 strategic technology partners</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>• PMI 2025 procurement standards</t>
-        </is>
-      </c>
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>PROCUREMENT OBJECTIVES</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="inlineStr">
+        <is>
+          <t>1. Secure best-in-class AI/ML technology solutions at competitive prices</t>
+        </is>
+      </c>
+      <c r="B15" s="6" t="n"/>
+      <c r="C15" s="6" t="n"/>
+      <c r="D15" s="6" t="n"/>
+      <c r="E15" s="6" t="n"/>
+      <c r="F15" s="6" t="n"/>
+      <c r="G15" s="6" t="n"/>
+      <c r="H15" s="7" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="inlineStr">
-        <is>
-          <t>HOW TO USE THIS TEMPLATE</t>
-        </is>
-      </c>
+      <c r="A16" s="5" t="inlineStr">
+        <is>
+          <t>2. Establish strategic partnerships with leading technology vendors</t>
+        </is>
+      </c>
+      <c r="B16" s="6" t="n"/>
+      <c r="C16" s="6" t="n"/>
+      <c r="D16" s="6" t="n"/>
+      <c r="E16" s="6" t="n"/>
+      <c r="F16" s="6" t="n"/>
+      <c r="G16" s="6" t="n"/>
+      <c r="H16" s="7" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>1. Review all tabs to understand the template structure</t>
-        </is>
-      </c>
+      <c r="A17" s="5" t="inlineStr">
+        <is>
+          <t>3. Ensure all procurements comply with organizational policies and regulations</t>
+        </is>
+      </c>
+      <c r="B17" s="6" t="n"/>
+      <c r="C17" s="6" t="n"/>
+      <c r="D17" s="6" t="n"/>
+      <c r="E17" s="6" t="n"/>
+      <c r="F17" s="6" t="n"/>
+      <c r="G17" s="6" t="n"/>
+      <c r="H17" s="7" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2. Fill in the yellow highlighted cells with your project-specific information</t>
-        </is>
-      </c>
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>4. Minimize procurement risks through comprehensive vendor evaluation</t>
+        </is>
+      </c>
+      <c r="B18" s="6" t="n"/>
+      <c r="C18" s="6" t="n"/>
+      <c r="D18" s="6" t="n"/>
+      <c r="E18" s="6" t="n"/>
+      <c r="F18" s="6" t="n"/>
+      <c r="G18" s="6" t="n"/>
+      <c r="H18" s="7" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>3. Do not modify formulas or calculated fields</t>
-        </is>
-      </c>
+      <c r="A19" s="5" t="inlineStr">
+        <is>
+          <t>5. Achieve cost savings of 15% through competitive bidding and negotiations</t>
+        </is>
+      </c>
+      <c r="B19" s="6" t="n"/>
+      <c r="C19" s="6" t="n"/>
+      <c r="D19" s="6" t="n"/>
+      <c r="E19" s="6" t="n"/>
+      <c r="F19" s="6" t="n"/>
+      <c r="G19" s="6" t="n"/>
+      <c r="H19" s="7" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4. Use dropdown menus where provided for consistency</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>5. Save regularly and maintain version control</t>
-        </is>
-      </c>
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>6. Maintain procurement schedule to support project timeline requirements</t>
+        </is>
+      </c>
+      <c r="B20" s="6" t="n"/>
+      <c r="C20" s="6" t="n"/>
+      <c r="D20" s="6" t="n"/>
+      <c r="E20" s="6" t="n"/>
+      <c r="F20" s="6" t="n"/>
+      <c r="G20" s="6" t="n"/>
+      <c r="H20" s="7" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>6. Export to PDF for stakeholder distribution</t>
-        </is>
-      </c>
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>PROCUREMENT STRATEGY</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="inlineStr">
+        <is>
+          <t>• Make vs Buy Analysis: Focus on core competencies, outsource specialized AI/ML components</t>
+        </is>
+      </c>
+      <c r="B23" s="6" t="n"/>
+      <c r="C23" s="6" t="n"/>
+      <c r="D23" s="6" t="n"/>
+      <c r="E23" s="6" t="n"/>
+      <c r="F23" s="6" t="n"/>
+      <c r="G23" s="6" t="n"/>
+      <c r="H23" s="7" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="inlineStr">
+        <is>
+          <t>• Vendor Strategy: Establish partnerships with 3-5 strategic vendors for long-term collaboration</t>
+        </is>
+      </c>
+      <c r="B24" s="6" t="n"/>
+      <c r="C24" s="6" t="n"/>
+      <c r="D24" s="6" t="n"/>
+      <c r="E24" s="6" t="n"/>
+      <c r="F24" s="6" t="n"/>
+      <c r="G24" s="6" t="n"/>
+      <c r="H24" s="7" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="inlineStr">
+        <is>
+          <t>• Contract Strategy: Use fixed-price contracts for well-defined work, T&amp;M for consulting</t>
+        </is>
+      </c>
+      <c r="B25" s="6" t="n"/>
+      <c r="C25" s="6" t="n"/>
+      <c r="D25" s="6" t="n"/>
+      <c r="E25" s="6" t="n"/>
+      <c r="F25" s="6" t="n"/>
+      <c r="G25" s="6" t="n"/>
+      <c r="H25" s="7" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="inlineStr">
+        <is>
+          <t>• Risk Strategy: Diversify vendor base, include performance guarantees and SLAs</t>
+        </is>
+      </c>
+      <c r="B26" s="6" t="n"/>
+      <c r="C26" s="6" t="n"/>
+      <c r="D26" s="6" t="n"/>
+      <c r="E26" s="6" t="n"/>
+      <c r="F26" s="6" t="n"/>
+      <c r="G26" s="6" t="n"/>
+      <c r="H26" s="7" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="inlineStr">
+        <is>
+          <t>• Cost Strategy: Competitive bidding for major purchases, negotiate volume discounts</t>
+        </is>
+      </c>
+      <c r="B27" s="6" t="n"/>
+      <c r="C27" s="6" t="n"/>
+      <c r="D27" s="6" t="n"/>
+      <c r="E27" s="6" t="n"/>
+      <c r="F27" s="6" t="n"/>
+      <c r="G27" s="6" t="n"/>
+      <c r="H27" s="7" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="inlineStr">
+        <is>
+          <t>• Quality Strategy: Rigorous vendor qualification, proof of concepts, reference checks</t>
+        </is>
+      </c>
+      <c r="B28" s="6" t="n"/>
+      <c r="C28" s="6" t="n"/>
+      <c r="D28" s="6" t="n"/>
+      <c r="E28" s="6" t="n"/>
+      <c r="F28" s="6" t="n"/>
+      <c r="G28" s="6" t="n"/>
+      <c r="H28" s="7" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A6:F8"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A20:F20"/>
+  <mergeCells count="18">
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A17:H17"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -657,7 +857,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,286 +865,1766 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
-    <col width="20" customWidth="1" min="7" max="7"/>
-    <col width="20" customWidth="1" min="8" max="8"/>
-    <col width="20" customWidth="1" min="9" max="9"/>
-    <col width="20" customWidth="1" min="10" max="10"/>
-    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="9" max="9"/>
+    <col width="10" customWidth="1" min="10" max="10"/>
+    <col width="15" customWidth="1" min="11" max="11"/>
+    <col width="15" customWidth="1" min="12" max="12"/>
+    <col width="20" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>FINANCE - CORE BANKING SYSTEM MODERNIZATION - PROCUREMENT PLAN</t>
+      <c r="A1" s="8" t="inlineStr">
+        <is>
+          <t>PROCUREMENT REGISTER</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="inlineStr">
-        <is>
-          <t>Procurement_ID</t>
-        </is>
-      </c>
-      <c r="B3" s="7" t="inlineStr">
-        <is>
-          <t>Item_Description</t>
-        </is>
-      </c>
-      <c r="C3" s="7" t="inlineStr">
+      <c r="A3" s="9" t="inlineStr">
+        <is>
+          <t>Procurement ID</t>
+        </is>
+      </c>
+      <c r="B3" s="9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
         <is>
           <t>Category</t>
         </is>
       </c>
-      <c r="D3" s="7" t="inlineStr">
+      <c r="D3" s="9" t="inlineStr">
+        <is>
+          <t>Contract Type</t>
+        </is>
+      </c>
+      <c r="E3" s="9" t="inlineStr">
+        <is>
+          <t>Estimated Value</t>
+        </is>
+      </c>
+      <c r="F3" s="9" t="inlineStr">
+        <is>
+          <t>Planned Start</t>
+        </is>
+      </c>
+      <c r="G3" s="9" t="inlineStr">
+        <is>
+          <t>Planned Award</t>
+        </is>
+      </c>
+      <c r="H3" s="9" t="inlineStr">
         <is>
           <t>Vendor</t>
         </is>
       </c>
-      <c r="E3" s="7" t="inlineStr">
-        <is>
-          <t>Estimated_Cost</t>
-        </is>
-      </c>
-      <c r="F3" s="7" t="inlineStr">
-        <is>
-          <t>Actual_Cost</t>
-        </is>
-      </c>
-      <c r="G3" s="7" t="inlineStr">
-        <is>
-          <t>Required_Date</t>
-        </is>
-      </c>
-      <c r="H3" s="7" t="inlineStr">
-        <is>
-          <t>Delivery_Date</t>
-        </is>
-      </c>
-      <c r="I3" s="7" t="inlineStr">
+      <c r="I3" s="9" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="J3" s="7" t="inlineStr">
+      <c r="J3" s="9" t="inlineStr">
+        <is>
+          <t>Risk Level</t>
+        </is>
+      </c>
+      <c r="K3" s="9" t="inlineStr">
         <is>
           <t>Owner</t>
         </is>
       </c>
-      <c r="K3" s="7" t="inlineStr">
+      <c r="L3" s="9" t="inlineStr">
+        <is>
+          <t>Approval Authority</t>
+        </is>
+      </c>
+      <c r="M3" s="9" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
+      <c r="N3" s="9" t="inlineStr">
+        <is>
+          <t>Actual Cost</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="8" t="inlineStr">
-        <is>
-          <t>PR-001</t>
-        </is>
-      </c>
-      <c r="B4" s="8" t="inlineStr">
-        <is>
-          <t>Core Banking Platform License</t>
-        </is>
-      </c>
-      <c r="C4" s="8" t="inlineStr">
+      <c r="A4" s="5" t="inlineStr">
+        <is>
+          <t>PROC-001</t>
+        </is>
+      </c>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>AI/ML Platform License</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>Software</t>
         </is>
       </c>
-      <c r="D4" s="8" t="inlineStr">
-        <is>
-          <t>Vendor A</t>
-        </is>
-      </c>
-      <c r="E4" s="8" t="n">
-        <v>2500000</v>
-      </c>
-      <c r="F4" s="8" t="n">
-        <v>2450000</v>
-      </c>
-      <c r="G4" s="8" t="inlineStr">
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>Fixed Price</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>$450,000</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>2025-02-01</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>2025-03-15</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>DataRobot Inc.</t>
+        </is>
+      </c>
+      <c r="I4" s="10" t="inlineStr">
+        <is>
+          <t>Awarded</t>
+        </is>
+      </c>
+      <c r="J4" s="11" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="K4" s="5" t="inlineStr">
+        <is>
+          <t>Robert Chen</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
+          <t>CTO</t>
+        </is>
+      </c>
+      <c r="M4" s="5" t="inlineStr">
+        <is>
+          <t>3-year license</t>
+        </is>
+      </c>
+      <c r="N4" s="5" t="inlineStr">
+        <is>
+          <t>$425,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>PROC-002</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Cloud Infrastructure Services</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Infrastructure</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>Time &amp; Materials</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>$300,000</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>2025-01-15</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>2025-02-28</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>AWS</t>
+        </is>
+      </c>
+      <c r="I5" s="10" t="inlineStr">
+        <is>
+          <t>Awarded</t>
+        </is>
+      </c>
+      <c r="J5" s="10" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>Chris Wilson</t>
+        </is>
+      </c>
+      <c r="L5" s="5" t="inlineStr">
+        <is>
+          <t>IT Director</t>
+        </is>
+      </c>
+      <c r="M5" s="5" t="inlineStr">
+        <is>
+          <t>Pay-as-you-go</t>
+        </is>
+      </c>
+      <c r="N5" s="5" t="inlineStr">
+        <is>
+          <t>$285,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>PROC-003</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Data Integration Consulting</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Time &amp; Materials</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>$180,000</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>2025-03-01</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>Accenture</t>
+        </is>
+      </c>
+      <c r="I6" s="11" t="inlineStr">
+        <is>
+          <t>In Progress</t>
+        </is>
+      </c>
+      <c r="J6" s="11" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>Thomas Lee</t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>Project Manager</t>
+        </is>
+      </c>
+      <c r="M6" s="5" t="inlineStr">
+        <is>
+          <t>6-month engagement</t>
+        </is>
+      </c>
+      <c r="N6" s="5" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>PROC-004</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>Security Assessment Services</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>Fixed Price</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>$75,000</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="G7" s="5" t="inlineStr">
+        <is>
+          <t>2025-05-15</t>
+        </is>
+      </c>
+      <c r="H7" s="5" t="inlineStr">
+        <is>
+          <t>Deloitte Cyber</t>
+        </is>
+      </c>
+      <c r="I7" s="12" t="inlineStr">
+        <is>
+          <t>Planned</t>
+        </is>
+      </c>
+      <c r="J7" s="13" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K7" s="5" t="inlineStr">
+        <is>
+          <t>Security Team</t>
+        </is>
+      </c>
+      <c r="L7" s="5" t="inlineStr">
+        <is>
+          <t>CISO</t>
+        </is>
+      </c>
+      <c r="M7" s="5" t="inlineStr">
+        <is>
+          <t>Comprehensive assessment</t>
+        </is>
+      </c>
+      <c r="N7" s="5" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>PROC-005</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>Training and Certification</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>Fixed Price</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>$120,000</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
         <is>
           <t>2025-08-01</t>
         </is>
       </c>
-      <c r="H4" s="8" t="inlineStr">
-        <is>
-          <t>2025-07-28</t>
-        </is>
-      </c>
-      <c r="I4" s="9" t="inlineStr">
-        <is>
-          <t>Delivered</t>
-        </is>
-      </c>
-      <c r="J4" s="8" t="inlineStr">
-        <is>
-          <t>Procurement Manager</t>
-        </is>
-      </c>
-      <c r="K4" s="8" t="inlineStr">
-        <is>
-          <t>Negotiated 2% discount</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="8" t="inlineStr">
-        <is>
-          <t>PR-002</t>
-        </is>
-      </c>
-      <c r="B5" s="8" t="inlineStr">
-        <is>
-          <t>Cloud Infrastructure Services</t>
-        </is>
-      </c>
-      <c r="C5" s="8" t="inlineStr">
-        <is>
-          <t>Infrastructure</t>
-        </is>
-      </c>
-      <c r="D5" s="8" t="inlineStr">
-        <is>
-          <t>AWS</t>
-        </is>
-      </c>
-      <c r="E5" s="8" t="n">
-        <v>500000</v>
-      </c>
-      <c r="F5" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="8" t="inlineStr">
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="I8" s="12" t="inlineStr">
+        <is>
+          <t>Planned</t>
+        </is>
+      </c>
+      <c r="J8" s="10" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K8" s="5" t="inlineStr">
+        <is>
+          <t>HR Manager</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
+          <t>CHRO</t>
+        </is>
+      </c>
+      <c r="M8" s="5" t="inlineStr">
+        <is>
+          <t>Team upskilling</t>
+        </is>
+      </c>
+      <c r="N8" s="5" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="inlineStr">
+        <is>
+          <t>PROC-006</t>
+        </is>
+      </c>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Development Tools License</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>Fixed Price</t>
+        </is>
+      </c>
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t>$85,000</t>
+        </is>
+      </c>
+      <c r="F9" s="5" t="inlineStr">
+        <is>
+          <t>2025-02-15</t>
+        </is>
+      </c>
+      <c r="G9" s="5" t="inlineStr">
+        <is>
+          <t>2025-03-30</t>
+        </is>
+      </c>
+      <c r="H9" s="5" t="inlineStr">
+        <is>
+          <t>JetBrains</t>
+        </is>
+      </c>
+      <c r="I9" s="10" t="inlineStr">
+        <is>
+          <t>Awarded</t>
+        </is>
+      </c>
+      <c r="J9" s="10" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K9" s="5" t="inlineStr">
+        <is>
+          <t>Dev Team Lead</t>
+        </is>
+      </c>
+      <c r="L9" s="5" t="inlineStr">
+        <is>
+          <t>CTO</t>
+        </is>
+      </c>
+      <c r="M9" s="5" t="inlineStr">
+        <is>
+          <t>IDE and tools</t>
+        </is>
+      </c>
+      <c r="N9" s="5" t="inlineStr">
+        <is>
+          <t>$80,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>PROC-007</t>
+        </is>
+      </c>
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>Data Visualization Platform</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
+        <is>
+          <t>Fixed Price</t>
+        </is>
+      </c>
+      <c r="E10" s="5" t="inlineStr">
+        <is>
+          <t>$95,000</t>
+        </is>
+      </c>
+      <c r="F10" s="5" t="inlineStr">
+        <is>
+          <t>2025-05-01</t>
+        </is>
+      </c>
+      <c r="G10" s="5" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="H10" s="5" t="inlineStr">
+        <is>
+          <t>Tableau</t>
+        </is>
+      </c>
+      <c r="I10" s="12" t="inlineStr">
+        <is>
+          <t>Planned</t>
+        </is>
+      </c>
+      <c r="J10" s="11" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="K10" s="5" t="inlineStr">
+        <is>
+          <t>Analytics Team</t>
+        </is>
+      </c>
+      <c r="L10" s="5" t="inlineStr">
+        <is>
+          <t>CDO</t>
+        </is>
+      </c>
+      <c r="M10" s="5" t="inlineStr">
+        <is>
+          <t>Enterprise license</t>
+        </is>
+      </c>
+      <c r="N10" s="5" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="inlineStr">
+        <is>
+          <t>PROC-008</t>
+        </is>
+      </c>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>MLOps Platform</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="inlineStr">
+        <is>
+          <t>Fixed Price</t>
+        </is>
+      </c>
+      <c r="E11" s="5" t="inlineStr">
+        <is>
+          <t>$200,000</t>
+        </is>
+      </c>
+      <c r="F11" s="5" t="inlineStr">
+        <is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="G11" s="5" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="H11" s="5" t="inlineStr">
+        <is>
+          <t>MLflow/Databricks</t>
+        </is>
+      </c>
+      <c r="I11" s="12" t="inlineStr">
+        <is>
+          <t>Planned</t>
+        </is>
+      </c>
+      <c r="J11" s="11" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="K11" s="5" t="inlineStr">
+        <is>
+          <t>ML Team</t>
+        </is>
+      </c>
+      <c r="L11" s="5" t="inlineStr">
+        <is>
+          <t>CTO</t>
+        </is>
+      </c>
+      <c r="M11" s="5" t="inlineStr">
+        <is>
+          <t>Model lifecycle mgmt</t>
+        </is>
+      </c>
+      <c r="N11" s="5" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>PROC-009</t>
+        </is>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>Hardware Infrastructure</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>Hardware</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="inlineStr">
+        <is>
+          <t>Fixed Price</t>
+        </is>
+      </c>
+      <c r="E12" s="5" t="inlineStr">
+        <is>
+          <t>$150,000</t>
+        </is>
+      </c>
+      <c r="F12" s="5" t="inlineStr">
+        <is>
+          <t>2025-03-15</t>
+        </is>
+      </c>
+      <c r="G12" s="5" t="inlineStr">
+        <is>
+          <t>2025-04-30</t>
+        </is>
+      </c>
+      <c r="H12" s="5" t="inlineStr">
+        <is>
+          <t>Dell Technologies</t>
+        </is>
+      </c>
+      <c r="I12" s="11" t="inlineStr">
+        <is>
+          <t>In Progress</t>
+        </is>
+      </c>
+      <c r="J12" s="11" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="K12" s="5" t="inlineStr">
+        <is>
+          <t>Infrastructure Team</t>
+        </is>
+      </c>
+      <c r="L12" s="5" t="inlineStr">
+        <is>
+          <t>IT Director</t>
+        </is>
+      </c>
+      <c r="M12" s="5" t="inlineStr">
+        <is>
+          <t>GPU servers</t>
+        </is>
+      </c>
+      <c r="N12" s="5" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="inlineStr">
+        <is>
+          <t>PROC-010</t>
+        </is>
+      </c>
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>Change Management Consulting</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="inlineStr">
+        <is>
+          <t>Time &amp; Materials</t>
+        </is>
+      </c>
+      <c r="E13" s="5" t="inlineStr">
+        <is>
+          <t>$90,000</t>
+        </is>
+      </c>
+      <c r="F13" s="5" t="inlineStr">
         <is>
           <t>2025-09-01</t>
         </is>
       </c>
-      <c r="H5" s="8" t="inlineStr"/>
-      <c r="I5" s="10" t="inlineStr">
-        <is>
-          <t>In Progress</t>
-        </is>
-      </c>
-      <c r="J5" s="8" t="inlineStr">
-        <is>
-          <t>IT Manager</t>
-        </is>
-      </c>
-      <c r="K5" s="8" t="inlineStr">
-        <is>
-          <t>Annual contract</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="8" t="inlineStr">
-        <is>
-          <t>PR-003</t>
-        </is>
-      </c>
-      <c r="B6" s="8" t="inlineStr">
-        <is>
-          <t>Security Assessment Services</t>
-        </is>
-      </c>
-      <c r="C6" s="8" t="inlineStr">
-        <is>
-          <t>Consulting</t>
-        </is>
-      </c>
-      <c r="D6" s="8" t="inlineStr">
-        <is>
-          <t>Security Firm B</t>
-        </is>
-      </c>
-      <c r="E6" s="8" t="n">
-        <v>150000</v>
-      </c>
-      <c r="F6" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="8" t="inlineStr">
-        <is>
-          <t>2025-08-15</t>
-        </is>
-      </c>
-      <c r="H6" s="8" t="inlineStr"/>
-      <c r="I6" s="11" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="J6" s="8" t="inlineStr">
-        <is>
-          <t>Security Officer</t>
-        </is>
-      </c>
-      <c r="K6" s="8" t="inlineStr">
-        <is>
-          <t>RFP in review</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="8" t="inlineStr">
-        <is>
-          <t>PR-004</t>
-        </is>
-      </c>
-      <c r="B7" s="8" t="inlineStr">
-        <is>
-          <t>Training Development Services</t>
-        </is>
-      </c>
-      <c r="C7" s="8" t="inlineStr">
-        <is>
-          <t>Training</t>
-        </is>
-      </c>
-      <c r="D7" s="8" t="inlineStr">
-        <is>
-          <t>Training Co C</t>
-        </is>
-      </c>
-      <c r="E7" s="8" t="n">
-        <v>75000</v>
-      </c>
-      <c r="F7" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="8" t="inlineStr">
-        <is>
-          <t>2025-10-01</t>
-        </is>
-      </c>
-      <c r="H7" s="8" t="inlineStr"/>
-      <c r="I7" s="11" t="inlineStr">
-        <is>
-          <t>Not Started</t>
-        </is>
-      </c>
-      <c r="J7" s="8" t="inlineStr">
-        <is>
-          <t>Training Manager</t>
-        </is>
-      </c>
-      <c r="K7" s="8" t="inlineStr">
-        <is>
-          <t>Awaiting budget approval</t>
+      <c r="G13" s="5" t="inlineStr">
+        <is>
+          <t>2025-10-15</t>
+        </is>
+      </c>
+      <c r="H13" s="5" t="inlineStr">
+        <is>
+          <t>Prosci</t>
+        </is>
+      </c>
+      <c r="I13" s="12" t="inlineStr">
+        <is>
+          <t>Planned</t>
+        </is>
+      </c>
+      <c r="J13" s="10" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K13" s="5" t="inlineStr">
+        <is>
+          <t>Change Manager</t>
+        </is>
+      </c>
+      <c r="L13" s="5" t="inlineStr">
+        <is>
+          <t>CHRO</t>
+        </is>
+      </c>
+      <c r="M13" s="5" t="inlineStr">
+        <is>
+          <t>Change strategy</t>
+        </is>
+      </c>
+      <c r="N13" s="5" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>PROC-011</t>
+        </is>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>Quality Assurance Tools</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="inlineStr">
+        <is>
+          <t>Fixed Price</t>
+        </is>
+      </c>
+      <c r="E14" s="5" t="inlineStr">
+        <is>
+          <t>$65,000</t>
+        </is>
+      </c>
+      <c r="F14" s="5" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="G14" s="5" t="inlineStr">
+        <is>
+          <t>2025-05-30</t>
+        </is>
+      </c>
+      <c r="H14" s="5" t="inlineStr">
+        <is>
+          <t>SmartBear</t>
+        </is>
+      </c>
+      <c r="I14" s="12" t="inlineStr">
+        <is>
+          <t>Planned</t>
+        </is>
+      </c>
+      <c r="J14" s="10" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K14" s="5" t="inlineStr">
+        <is>
+          <t>QA Manager</t>
+        </is>
+      </c>
+      <c r="L14" s="5" t="inlineStr">
+        <is>
+          <t>CTO</t>
+        </is>
+      </c>
+      <c r="M14" s="5" t="inlineStr">
+        <is>
+          <t>Testing automation</t>
+        </is>
+      </c>
+      <c r="N14" s="5" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="inlineStr">
+        <is>
+          <t>PROC-012</t>
+        </is>
+      </c>
+      <c r="B15" s="5" t="inlineStr">
+        <is>
+          <t>Legal and Compliance Review</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="inlineStr">
+        <is>
+          <t>Fixed Price</t>
+        </is>
+      </c>
+      <c r="E15" s="5" t="inlineStr">
+        <is>
+          <t>$45,000</t>
+        </is>
+      </c>
+      <c r="F15" s="5" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="G15" s="5" t="inlineStr">
+        <is>
+          <t>2025-02-15</t>
+        </is>
+      </c>
+      <c r="H15" s="5" t="inlineStr">
+        <is>
+          <t>Baker McKenzie</t>
+        </is>
+      </c>
+      <c r="I15" s="10" t="inlineStr">
+        <is>
+          <t>Awarded</t>
+        </is>
+      </c>
+      <c r="J15" s="11" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="K15" s="5" t="inlineStr">
+        <is>
+          <t>Legal Team</t>
+        </is>
+      </c>
+      <c r="L15" s="5" t="inlineStr">
+        <is>
+          <t>General Counsel</t>
+        </is>
+      </c>
+      <c r="M15" s="5" t="inlineStr">
+        <is>
+          <t>Contract review</t>
+        </is>
+      </c>
+      <c r="N15" s="5" t="inlineStr">
+        <is>
+          <t>$42,000</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A1:N1"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation sqref="I4:I15" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>"Planned,In Progress,Awarded,Cancelled,Completed"</formula1>
+    </dataValidation>
+    <dataValidation sqref="J4:J15" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>"Low,Medium,High,Critical"</formula1>
+    </dataValidation>
+    <dataValidation sqref="D4:D15" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>"Fixed Price,Time &amp; Materials,Cost Plus,Unit Price"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="9" max="9"/>
+    <col width="12" customWidth="1" min="10" max="10"/>
+    <col width="10" customWidth="1" min="11" max="11"/>
+    <col width="25" customWidth="1" min="12" max="12"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="8" t="inlineStr">
+        <is>
+          <t>VENDOR MANAGEMENT MATRIX</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="9" t="inlineStr">
+        <is>
+          <t>Vendor Name</t>
+        </is>
+      </c>
+      <c r="B3" s="9" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>Relationship Type</t>
+        </is>
+      </c>
+      <c r="D3" s="9" t="inlineStr">
+        <is>
+          <t>Contract Value</t>
+        </is>
+      </c>
+      <c r="E3" s="9" t="inlineStr">
+        <is>
+          <t>Performance Rating</t>
+        </is>
+      </c>
+      <c r="F3" s="9" t="inlineStr">
+        <is>
+          <t>Risk Assessment</t>
+        </is>
+      </c>
+      <c r="G3" s="9" t="inlineStr">
+        <is>
+          <t>Key Contact</t>
+        </is>
+      </c>
+      <c r="H3" s="9" t="inlineStr">
+        <is>
+          <t>Contract Start</t>
+        </is>
+      </c>
+      <c r="I3" s="9" t="inlineStr">
+        <is>
+          <t>Contract End</t>
+        </is>
+      </c>
+      <c r="J3" s="9" t="inlineStr">
+        <is>
+          <t>Renewal Option</t>
+        </is>
+      </c>
+      <c r="K3" s="9" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="L3" s="9" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="inlineStr">
+        <is>
+          <t>DataRobot Inc.</t>
+        </is>
+      </c>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>AI/ML Platform</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>Strategic Partner</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>$450,000</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>4.5/5</t>
+        </is>
+      </c>
+      <c r="F4" s="10" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>Sarah Kim, VP Sales</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>2025-03-15</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>2028-03-14</t>
+        </is>
+      </c>
+      <c r="J4" s="5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K4" s="10" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
+          <t>Primary AI platform</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>AWS</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Cloud Services</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Preferred Vendor</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>$300,000</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>4.8/5</t>
+        </is>
+      </c>
+      <c r="F5" s="10" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>Mike Johnson, Account Mgr</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>2025-02-28</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K5" s="10" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="L5" s="5" t="inlineStr">
+        <is>
+          <t>Infrastructure provider</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Accenture</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Consulting</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Strategic Partner</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>$180,000</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>4.2/5</t>
+        </is>
+      </c>
+      <c r="F6" s="11" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>Lisa Chen, Partner</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>2025-10-14</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K6" s="10" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>Data integration expert</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>Deloitte Cyber</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>Security Services</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>Specialist Vendor</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>$75,000</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>4.0/5</t>
+        </is>
+      </c>
+      <c r="F7" s="11" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="G7" s="5" t="inlineStr">
+        <is>
+          <t>Robert Taylor, Director</t>
+        </is>
+      </c>
+      <c r="H7" s="5" t="inlineStr">
+        <is>
+          <t>2025-05-15</t>
+        </is>
+      </c>
+      <c r="I7" s="5" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="J7" s="5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K7" s="12" t="inlineStr">
+        <is>
+          <t>Planned</t>
+        </is>
+      </c>
+      <c r="L7" s="5" t="inlineStr">
+        <is>
+          <t>Security assessment</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>JetBrains</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>Development Tools</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>Technology Vendor</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>$85,000</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>4.6/5</t>
+        </is>
+      </c>
+      <c r="F8" s="10" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>Anna Petrov, Sales</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>2025-03-30</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>2026-03-29</t>
+        </is>
+      </c>
+      <c r="J8" s="5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K8" s="10" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
+          <t>Development environment</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="inlineStr">
+        <is>
+          <t>Tableau</t>
+        </is>
+      </c>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Analytics Platform</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>Technology Vendor</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>$95,000</t>
+        </is>
+      </c>
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t>4.3/5</t>
+        </is>
+      </c>
+      <c r="F9" s="11" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="G9" s="5" t="inlineStr">
+        <is>
+          <t>David Wong, Account Exec</t>
+        </is>
+      </c>
+      <c r="H9" s="5" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="I9" s="5" t="inlineStr">
+        <is>
+          <t>2026-06-14</t>
+        </is>
+      </c>
+      <c r="J9" s="5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K9" s="12" t="inlineStr">
+        <is>
+          <t>Planned</t>
+        </is>
+      </c>
+      <c r="L9" s="5" t="inlineStr">
+        <is>
+          <t>Data visualization</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>Databricks</t>
+        </is>
+      </c>
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>MLOps Platform</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>Strategic Partner</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
+        <is>
+          <t>$200,000</t>
+        </is>
+      </c>
+      <c r="E10" s="5" t="inlineStr">
+        <is>
+          <t>4.4/5</t>
+        </is>
+      </c>
+      <c r="F10" s="11" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="G10" s="5" t="inlineStr">
+        <is>
+          <t>Jennifer Liu, Solutions</t>
+        </is>
+      </c>
+      <c r="H10" s="5" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="I10" s="5" t="inlineStr">
+        <is>
+          <t>2026-07-14</t>
+        </is>
+      </c>
+      <c r="J10" s="5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K10" s="12" t="inlineStr">
+        <is>
+          <t>Planned</t>
+        </is>
+      </c>
+      <c r="L10" s="5" t="inlineStr">
+        <is>
+          <t>ML lifecycle management</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="inlineStr">
+        <is>
+          <t>Dell Technologies</t>
+        </is>
+      </c>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Hardware</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>Preferred Vendor</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="inlineStr">
+        <is>
+          <t>$150,000</t>
+        </is>
+      </c>
+      <c r="E11" s="5" t="inlineStr">
+        <is>
+          <t>4.1/5</t>
+        </is>
+      </c>
+      <c r="F11" s="11" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="G11" s="5" t="inlineStr">
+        <is>
+          <t>Kevin Zhang, Sales</t>
+        </is>
+      </c>
+      <c r="H11" s="5" t="inlineStr">
+        <is>
+          <t>2025-04-30</t>
+        </is>
+      </c>
+      <c r="I11" s="5" t="inlineStr">
+        <is>
+          <t>2025-07-29</t>
+        </is>
+      </c>
+      <c r="J11" s="5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K11" s="11" t="inlineStr">
+        <is>
+          <t>In Progress</t>
+        </is>
+      </c>
+      <c r="L11" s="5" t="inlineStr">
+        <is>
+          <t>GPU infrastructure</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>Prosci</t>
+        </is>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>Change Management</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>Specialist Vendor</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="inlineStr">
+        <is>
+          <t>$90,000</t>
+        </is>
+      </c>
+      <c r="E12" s="5" t="inlineStr">
+        <is>
+          <t>4.7/5</t>
+        </is>
+      </c>
+      <c r="F12" s="10" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G12" s="5" t="inlineStr">
+        <is>
+          <t>Maria Garcia, Consultant</t>
+        </is>
+      </c>
+      <c r="H12" s="5" t="inlineStr">
+        <is>
+          <t>2025-10-15</t>
+        </is>
+      </c>
+      <c r="I12" s="5" t="inlineStr">
+        <is>
+          <t>2026-01-14</t>
+        </is>
+      </c>
+      <c r="J12" s="5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K12" s="12" t="inlineStr">
+        <is>
+          <t>Planned</t>
+        </is>
+      </c>
+      <c r="L12" s="5" t="inlineStr">
+        <is>
+          <t>Change methodology</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="inlineStr">
+        <is>
+          <t>SmartBear</t>
+        </is>
+      </c>
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>QA Tools</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>Technology Vendor</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="inlineStr">
+        <is>
+          <t>$65,000</t>
+        </is>
+      </c>
+      <c r="E13" s="5" t="inlineStr">
+        <is>
+          <t>4.2/5</t>
+        </is>
+      </c>
+      <c r="F13" s="10" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G13" s="5" t="inlineStr">
+        <is>
+          <t>Tom Wilson, Sales</t>
+        </is>
+      </c>
+      <c r="H13" s="5" t="inlineStr">
+        <is>
+          <t>2025-05-30</t>
+        </is>
+      </c>
+      <c r="I13" s="5" t="inlineStr">
+        <is>
+          <t>2026-05-29</t>
+        </is>
+      </c>
+      <c r="J13" s="5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K13" s="12" t="inlineStr">
+        <is>
+          <t>Planned</t>
+        </is>
+      </c>
+      <c r="L13" s="5" t="inlineStr">
+        <is>
+          <t>Testing automation</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>Baker McKenzie</t>
+        </is>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>Legal Services</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>Professional Services</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="inlineStr">
+        <is>
+          <t>$45,000</t>
+        </is>
+      </c>
+      <c r="E14" s="5" t="inlineStr">
+        <is>
+          <t>4.5/5</t>
+        </is>
+      </c>
+      <c r="F14" s="10" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G14" s="5" t="inlineStr">
+        <is>
+          <t>Susan Brown, Partner</t>
+        </is>
+      </c>
+      <c r="H14" s="5" t="inlineStr">
+        <is>
+          <t>2025-02-15</t>
+        </is>
+      </c>
+      <c r="I14" s="5" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
+      <c r="J14" s="5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K14" s="10" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="L14" s="5" t="inlineStr">
+        <is>
+          <t>Legal compliance</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:L1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
